--- a/Atualizacao.xlsx
+++ b/Atualizacao.xlsx
@@ -364,7 +364,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>45169</v>
+        <v>45170</v>
       </c>
     </row>
   </sheetData>

--- a/Atualizacao.xlsx
+++ b/Atualizacao.xlsx
@@ -364,7 +364,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>45170</v>
+        <v>45174</v>
       </c>
     </row>
   </sheetData>
